--- a/CLI_Batch_Rename_Template.xlsx
+++ b/CLI_Batch_Rename_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-adcrof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-adcrof\Documents\GitHub\Excel-CLI-Batch-Rename-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Extension">Sheet1!$A$5</definedName>
+    <definedName name="Path">Sheet1!$A$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,57 +28,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>C:\Users\v-adcrof\Desktop\jackFile.txt</t>
-  </si>
-  <si>
-    <t>Original File Name (and location)</t>
-  </si>
-  <si>
-    <t>New File Name (no location)</t>
-  </si>
-  <si>
-    <t>test.txt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STEPS:</t>
   </si>
   <si>
-    <t>C:\meh.file</t>
-  </si>
-  <si>
-    <t>secondFile.file</t>
-  </si>
-  <si>
-    <t>2. Fill column B with desired new file names</t>
-  </si>
-  <si>
-    <t>3. Columns C &amp; D should auto-populate for first file if you don't delete row 2</t>
-  </si>
-  <si>
-    <t>4. Select all rows in Column C that need to be filled, "fill down" with control+D (windows)</t>
-  </si>
-  <si>
-    <t>5. Repeat for Column D if you need to use Mac terminal</t>
-  </si>
-  <si>
     <t>Windows Command Line</t>
   </si>
   <si>
     <t>Mac OSX Terminal</t>
   </si>
   <si>
-    <t>1. Fill column A with original file names (including directory location)</t>
-  </si>
-  <si>
-    <t>6. Make a backup of the files you're going to rename</t>
-  </si>
-  <si>
-    <t>7. Copy all cells with your new formula in Column C or D (Windows or Mac)</t>
-  </si>
-  <si>
-    <t>8. Open a Command Line (or Terminal) window, and paste</t>
+    <t>C:\</t>
+  </si>
+  <si>
+    <t>jackFile.txt</t>
+  </si>
+  <si>
+    <t>meh.file</t>
+  </si>
+  <si>
+    <t>file1.wav</t>
+  </si>
+  <si>
+    <t>file2.wav</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>1. Put the directory path to your old files in column A</t>
+  </si>
+  <si>
+    <t>2. Fill column B with original file names</t>
+  </si>
+  <si>
+    <t>3. Fill column C with desired new file names</t>
+  </si>
+  <si>
+    <t>4. Columns D &amp; E should auto-populate for first file if you don't delete row 2</t>
+  </si>
+  <si>
+    <t>5. Select all rows in column D from D2 to the last row needed to be filled and press control+D</t>
+  </si>
+  <si>
+    <t>6. Repeat for Column E if you need to use Mac terminal</t>
+  </si>
+  <si>
+    <t>7. Make a backup of the files you're going to rename</t>
+  </si>
+  <si>
+    <t>8. Copy all cells with your new formula in Column D or E (Windows or Mac)</t>
+  </si>
+  <si>
+    <t>9. Open a Command Line (or Terminal) window, and paste</t>
+  </si>
+  <si>
+    <t>Original File Name</t>
+  </si>
+  <si>
+    <t>New File Name</t>
+  </si>
+  <si>
+    <t>File extension (optional)</t>
+  </si>
+  <si>
+    <t>.wav</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>filename2</t>
   </si>
 </sst>
 </file>
@@ -421,103 +446,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="32.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"ren "&amp;""""&amp;Path&amp;B2&amp;""""&amp;" "&amp;""""&amp;C2&amp;""""</f>
+        <v>ren "C:\jackFile.txt" "filename"</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"mv "&amp;""""&amp;Path&amp;B2&amp;""""&amp;" "&amp;""""&amp;C2&amp;Extension&amp;""""</f>
+        <v>mv "C:\jackFile.txt" "filename.wav"</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"ren "&amp;""""&amp;Path&amp;B3&amp;""""&amp;" "&amp;""""&amp;C3&amp;""""</f>
+        <v>ren "C:\meh.file" "filename2"</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"mv "&amp;""""&amp;Path&amp;B3&amp;""""&amp;" "&amp;""""&amp;C3&amp;Extension&amp;""""</f>
+        <v>mv "C:\meh.file" "filename2.wav"</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"ren "&amp;""""&amp;A2&amp;""""&amp;" "&amp;""""&amp;B2&amp;""""</f>
-        <v>ren "C:\Users\v-adcrof\Desktop\jackFile.txt" "test.txt"</v>
-      </c>
-      <c r="D2" t="str">
-        <f>"mv "&amp;""""&amp;A2&amp;""""&amp;" "&amp;""""&amp;B2&amp;""""</f>
-        <v>mv "C:\Users\v-adcrof\Desktop\jackFile.txt" "test.txt"</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"ren "&amp;""""&amp;A3&amp;""""&amp;" "&amp;""""&amp;B3&amp;""""</f>
-        <v>ren "C:\meh.file" "secondFile.file"</v>
-      </c>
-      <c r="D3" t="str">
-        <f>"mv "&amp;""""&amp;A3&amp;""""&amp;" "&amp;""""&amp;B3&amp;""""</f>
-        <v>mv "C:\meh.file" "secondFile.file"</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
